--- a/doc/ue_latentmanager_levelstreaming.xlsx
+++ b/doc/ue_latentmanager_levelstreaming.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="latentactionManager" sheetId="2" r:id="rId2"/>
+    <sheet name="流式关卡加载卸载全过程" sheetId="3" r:id="rId2"/>
+    <sheet name="latentactionManager" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
   <si>
     <t>FStreamLevelAction</t>
   </si>
@@ -316,6 +317,123 @@
   </si>
   <si>
     <t>class FDelayAction : public FPendingLatentAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGameplayStatics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static void LoadStreamLevel(const UObject* WorldContextObject, FName LevelName, bool bMakeVisibleAfterLoad, bool bShouldBlockOnLoad, FLatentActionInfo LatentInfo);</t>
+  </si>
+  <si>
+    <t>加载流式子关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流式关卡加载卸载流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载流式关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static void UnloadStreamLevel(const UObject* WorldContextObject, FName LevelName, FLatentActionInfo LatentInfo, bool bShouldBlockOnUnload);</t>
+  </si>
+  <si>
+    <t>内部创建一个FStreamLevelAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入到FLatentActionManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数里面先从当前World找到流式关卡的StreamingObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ULevelStreaming* LocalLevel = FindAndCacheLevelStreamingObject( LevelName, World );</t>
+  </si>
+  <si>
+    <t>ULevelStreaming</t>
+  </si>
+  <si>
+    <t>具体在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStreamingLevelPrivateAccessor::UpdateStreamingState(StreamingLevel, bUpdateAgain, bRedetermineTarget);</t>
+  </si>
+  <si>
+    <t>StreamingLevel-&gt;UpdateStreamingState(bOutUpdateAgain, bOutRedetermineTarget);</t>
+  </si>
+  <si>
+    <t>内部不管的判断状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果当前是ECurrentState::Unloaded，目标是ETargetState::LoadedNotVisible就指定异步加载资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管判断状态是否加载完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool ULevelStreaming::RequestLevel(UWorld* PersistentWorld, bool bAllowLevelLoadRequests, EReqLevelBlock BlockPolicy)</t>
+  </si>
+  <si>
+    <t>（对于加载，其实也是用LoadPackageAsync异步加载资源的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::UpdateLevelStreaming()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（对于卸载，就是DiscardPendingUnloadLevel里面处理的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态判断：加载中的卸载，以加载的卸载等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ULevelStreaming::DiscardPendingUnloadLevel(UWorld* PersistentWorld)</t>
+  </si>
+  <si>
+    <t>if (PendingUnloadLevel)</t>
+  </si>
+  <si>
+    <t>if (PendingUnloadLevel-&gt;bIsVisible)</t>
+  </si>
+  <si>
+    <t>PersistentWorld-&gt;RemoveFromWorld(PendingUnloadLevel);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>if (!PendingUnloadLevel-&gt;bIsVisible)</t>
+  </si>
+  <si>
+    <t>FLevelStreamingGCHelper::RequestUnload(PendingUnloadLevel);</t>
+  </si>
+  <si>
+    <t>PendingUnloadLevel = nullptr;</t>
+  </si>
+  <si>
+    <t>没有显示的，内部比较复杂，待补充！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经显示的，内部比较复杂，待补充！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1000,7 +1118,7 @@
     <row r="63" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -1074,9 +1192,311 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="R66" sqref="R66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D39" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D41" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C51" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>110</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>113</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_latentmanager_levelstreaming.xlsx
+++ b/doc/ue_latentmanager_levelstreaming.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="流式关卡加载卸载全过程" sheetId="3" r:id="rId2"/>
-    <sheet name="latentactionManager" sheetId="2" r:id="rId3"/>
+    <sheet name="关卡事件" sheetId="6" r:id="rId3"/>
+    <sheet name="IStreamingManager" sheetId="4" r:id="rId4"/>
+    <sheet name="latentactionManager" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="131">
   <si>
     <t>FStreamLevelAction</t>
   </si>
@@ -435,6 +437,52 @@
   <si>
     <t>已经显示的，内部比较复杂，待补充！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IStreamingManager</t>
+  </si>
+  <si>
+    <t>关卡加载与卸载，会生成很多事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Sent when a ULevel is added to the world via UWorld::AddToWorld</t>
+  </si>
+  <si>
+    <t>static FOnLevelChanged</t>
+  </si>
+  <si>
+    <t>LevelAddedToWorld;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Sent when a ULevel is removed from the world via UWorld::RemoveFromWorld or </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// LoadMap (a NULL object means the LoadMap case, because all levels will be </t>
+  </si>
+  <si>
+    <t>// removed from the world without a RemoveFromWorld call for each)</t>
+  </si>
+  <si>
+    <t>LevelRemovedFromWorld;</t>
+  </si>
+  <si>
+    <t>可以在这个里面做很多事情：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流式关卡加载/卸载监听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMG就是监听了这个，然后当World被删除的时候将自己移除的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Callback for world cleanup start</t>
+  </si>
+  <si>
+    <t>static FWorldCleanupEvent OnWorldCleanup;</t>
   </si>
 </sst>
 </file>
@@ -1194,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="R66" sqref="R66"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1493,6 +1541,117 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B8:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:F17"/>
   <sheetViews>
